--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -55,10 +56,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +98,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,7 +457,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -436,16 +473,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -462,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -471,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -482,19 +519,19 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>150</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>9999</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -508,19 +545,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -537,4 +574,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Level</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>GoldUpgrade</t>
+  </si>
+  <si>
+    <t>!ATK</t>
+  </si>
+  <si>
+    <t>!Tỷ lệ upgrade sau 5 lv</t>
+  </si>
+  <si>
+    <t>!Tỷ lệ nhân</t>
   </si>
 </sst>
 </file>
@@ -98,8 +107,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -114,17 +133,27 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,15 +483,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,25 +502,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -496,25 +537,34 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -522,48 +572,1113 @@
         <v>50</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(POWER(C3, 1 / 5), 2)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>B3 *E3</f>
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <f>A3 +1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>ROUND(B3*D4, 0)</f>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E4">
+        <f>E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <f>G3</f>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f>H3</f>
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f>I3</f>
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <f>J3</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>K3</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <f t="shared" ref="A5:A26" si="2">A4 +1</f>
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>150</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E27" si="4">E4</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G27" si="5">G4</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H27" si="6">H4</f>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I27" si="7">I4</f>
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J27" si="8">J4</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K27" si="9">K4</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>160</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1200</v>
+      <c r="B6">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>271</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>359</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>628</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>722</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>830</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>830</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>955</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>955</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1098</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>1263</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1263</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <f>A26 +1</f>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>1452</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1452</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="F3">
         <f>B3 *E3</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -608,7 +608,7 @@
       </c>
       <c r="B4">
         <f>ROUND(B3*D4, 0)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -623,7 +623,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <f>G3</f>
@@ -653,7 +653,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G27" si="5">G4</f>
@@ -698,7 +698,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -803,7 +803,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>546</v>
+        <v>643</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>546</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>628</v>
+        <v>739</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>628</v>
+        <v>739</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>722</v>
+        <v>850</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>722</v>
+        <v>850</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>830</v>
+        <v>978</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>978</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>955</v>
+        <v>1125</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>955</v>
+        <v>1125</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>1098</v>
+        <v>1294</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1098</v>
+        <v>1294</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>1263</v>
+        <v>1488</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1263</v>
+        <v>1488</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>1452</v>
+        <v>1711</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1452</v>
+        <v>1711</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -572,11 +572,11 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D3">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,14 +608,14 @@
       </c>
       <c r="B4">
         <f>ROUND(B3*D4, 0)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E4">
         <f>E3</f>
@@ -623,7 +623,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <f>G3</f>
@@ -653,14 +653,14 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E27" si="4">E4</f>
@@ -668,7 +668,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G27" si="5">G4</f>
@@ -698,14 +698,14 @@
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
@@ -743,14 +743,14 @@
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -803,7 +803,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
@@ -923,7 +923,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>643</v>
+        <v>711</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>643</v>
+        <v>711</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>739</v>
+        <v>818</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>739</v>
+        <v>818</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>850</v>
+        <v>941</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>941</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>1244</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1125</v>
+        <v>1244</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>1294</v>
+        <v>1431</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1294</v>
+        <v>1431</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>1488</v>
+        <v>1646</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1488</v>
+        <v>1646</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>1711</v>
+        <v>1893</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1711</v>
+        <v>1893</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -133,7 +137,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -144,6 +148,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -154,6 +160,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,7 +494,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -572,11 +580,11 @@
         <v>59</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -589,10 +597,10 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -608,14 +616,14 @@
       </c>
       <c r="B4">
         <f>ROUND(B3*D4, 0)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E4">
         <f>E3</f>
@@ -623,7 +631,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <f>G3</f>
@@ -631,11 +639,11 @@
       </c>
       <c r="H4">
         <f>H3</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <f>I3</f>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J4">
         <f>J3</f>
@@ -653,14 +661,14 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E27" si="4">E4</f>
@@ -668,7 +676,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G27" si="5">G4</f>
@@ -676,11 +684,11 @@
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H27" si="6">H4</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I27" si="7">I4</f>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J27" si="8">J4</f>
@@ -698,14 +706,14 @@
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -713,7 +721,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
@@ -721,11 +729,11 @@
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
@@ -743,14 +751,14 @@
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -758,7 +766,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
@@ -766,11 +774,11 @@
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
@@ -788,7 +796,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -803,7 +811,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
@@ -811,11 +819,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
@@ -833,7 +841,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -848,7 +856,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
@@ -856,11 +864,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
@@ -878,7 +886,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -893,7 +901,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
@@ -901,11 +909,11 @@
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
@@ -923,7 +931,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -938,7 +946,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
@@ -946,11 +954,11 @@
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
@@ -968,7 +976,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -983,7 +991,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
@@ -991,11 +999,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
@@ -1013,7 +1021,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1028,7 +1036,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
@@ -1036,11 +1044,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
@@ -1058,7 +1066,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1073,7 +1081,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
@@ -1081,11 +1089,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
@@ -1103,7 +1111,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1118,7 +1126,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
@@ -1126,11 +1134,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
@@ -1148,7 +1156,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1163,7 +1171,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -1171,11 +1179,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
@@ -1193,7 +1201,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1208,7 +1216,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
@@ -1216,11 +1224,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
@@ -1238,7 +1246,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1253,7 +1261,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
@@ -1261,11 +1269,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
@@ -1283,7 +1291,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1298,7 +1306,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
@@ -1306,11 +1314,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
@@ -1328,7 +1336,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1343,7 +1351,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
@@ -1351,11 +1359,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
@@ -1373,7 +1381,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>818</v>
+        <v>863</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1388,7 +1396,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>818</v>
+        <v>863</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
@@ -1396,11 +1404,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
@@ -1418,7 +1426,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1433,7 +1441,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
@@ -1441,11 +1449,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
@@ -1463,7 +1471,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>1082</v>
+        <v>1141</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1478,7 +1486,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1082</v>
+        <v>1141</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
@@ -1486,11 +1494,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
@@ -1508,7 +1516,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>1244</v>
+        <v>1312</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1523,7 +1531,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1244</v>
+        <v>1312</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
@@ -1531,11 +1539,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
@@ -1553,7 +1561,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>1431</v>
+        <v>1509</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1568,7 +1576,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1431</v>
+        <v>1509</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
@@ -1576,11 +1584,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
@@ -1598,7 +1606,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>1646</v>
+        <v>1735</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1613,7 +1621,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1646</v>
+        <v>1735</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
@@ -1621,11 +1629,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
@@ -1643,7 +1651,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>1893</v>
+        <v>1995</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1658,7 +1666,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1893</v>
+        <v>1995</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
@@ -1666,11 +1674,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
@@ -1683,6 +1691,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,15 +90,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,8 +112,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -133,11 +154,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -150,6 +177,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -162,6 +191,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,1204 +525,1204 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>59</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>ROUND(POWER(C3, 1 / 5), 2)</f>
         <v>1.2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <f>B3 *E3</f>
         <v>59</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>210</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1">
+        <v>210</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="A4" s="1">
         <f>A3 +1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>ROUND(B3*D4, 0)</f>
         <v>71</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D27" si="0">ROUND(POWER(C4, 1 / 5), 2)</f>
         <v>1.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F27" si="1">B4 *E4</f>
         <v>71</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>G3</f>
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>H3</f>
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f>I3</f>
         <v>210</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="K4">
-        <f>K3</f>
-        <v>1000</v>
+      <c r="K4" s="1">
+        <f>K3 +200</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A26" si="2">A4 +1</f>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:B27" si="3">ROUND(B4*D5, 0)</f>
         <v>85</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E27" si="4">E4</f>
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" ref="G5:G27" si="5">G4</f>
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" ref="H5:H27" si="6">H4</f>
         <v>17</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f t="shared" ref="I5:I27" si="7">I4</f>
         <v>210</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f t="shared" ref="J5:J27" si="8">J4</f>
         <v>1</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K27" si="9">K4</f>
-        <v>1000</v>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K27" si="9">K4 +200</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G6" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="9"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7">
+      <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="9"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8">
+      <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G8" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="9"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9">
+      <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G9" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="9"/>
+        <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10">
+      <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G10" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="9"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11">
+      <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G11" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="9"/>
+        <v>2600</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G12" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="9"/>
+        <v>2800</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13">
+      <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f t="shared" si="3"/>
         <v>282</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14">
+      <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G14" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="9"/>
+        <v>3200</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15">
+      <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f t="shared" si="3"/>
         <v>373</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>373</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G15" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="9"/>
+        <v>3400</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16">
+      <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f t="shared" si="3"/>
         <v>429</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>429</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G16" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="9"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17">
+      <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f t="shared" si="3"/>
         <v>493</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>493</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G17" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="9"/>
+        <v>3800</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18">
+      <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <f t="shared" si="3"/>
         <v>567</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G18" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="9"/>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
         <f t="shared" si="3"/>
         <v>652</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>652</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G19" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="9"/>
+        <v>4200</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20">
+      <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G20" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="9"/>
+        <v>4400</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21">
+      <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>863</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G21" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="9"/>
+        <v>4600</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22">
+      <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>992</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
         <v>992</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G22" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="9"/>
+        <v>4800</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23">
+      <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>1141</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="1"/>
         <v>1141</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G23" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="9"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24">
+      <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>1312</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="1"/>
         <v>1312</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G24" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="9"/>
+        <v>5200</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25">
+      <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>1509</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="1"/>
         <v>1509</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G25" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>5400</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26">
+      <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f t="shared" si="3"/>
         <v>1735</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="1"/>
         <v>1735</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G26" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>5600</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27">
+      <c r="A27" s="1">
         <f>A26 +1</f>
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <f t="shared" si="3"/>
         <v>1995</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="1"/>
         <v>1995</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="G27" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>5800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -682,8 +682,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <f>K3 +200</f>
-        <v>1200</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -727,8 +726,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K27" si="9">K4 +200</f>
-        <v>1400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -772,8 +770,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="9"/>
-        <v>1600</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -817,8 +814,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="9"/>
-        <v>1800</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -862,8 +858,8 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="9"/>
-        <v>2000</v>
+        <f>K7 +4000</f>
+        <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -907,8 +903,8 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="9"/>
-        <v>2200</v>
+        <f t="shared" ref="K9:K27" si="9">K8 +4000</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -953,7 +949,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="9"/>
-        <v>2400</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -998,7 +994,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="9"/>
-        <v>2600</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1043,7 +1039,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="9"/>
-        <v>2800</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1088,7 +1084,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1133,7 +1129,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="9"/>
-        <v>3200</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1178,7 +1174,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="9"/>
-        <v>3400</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,7 +1219,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="9"/>
-        <v>3600</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1268,7 +1264,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="9"/>
-        <v>3800</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1313,7 +1309,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1358,7 +1354,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="9"/>
-        <v>4200</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1403,7 +1399,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="9"/>
-        <v>4400</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1448,7 +1444,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="9"/>
-        <v>4600</v>
+        <v>73000</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1493,7 +1489,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="9"/>
-        <v>4800</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="9"/>
-        <v>5000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1583,7 +1579,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="9"/>
-        <v>5200</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1628,7 +1624,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="9"/>
-        <v>5400</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1673,7 +1669,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="9"/>
-        <v>5600</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1718,7 +1714,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="9"/>
-        <v>5800</v>
+        <v>97000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="12880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="12880" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,8 +128,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -179,6 +185,9 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -193,6 +202,9 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,7 +537,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -824,14 +836,14 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="4"/>
@@ -839,7 +851,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="5"/>
@@ -869,14 +881,14 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="3"/>
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="4"/>
@@ -884,7 +896,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="5"/>
@@ -914,14 +926,14 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="4"/>
@@ -929,7 +941,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="5"/>
@@ -959,14 +971,14 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="4"/>
@@ -974,7 +986,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="5"/>
@@ -1004,14 +1016,14 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="4"/>
@@ -1019,7 +1031,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="5"/>
@@ -1049,14 +1061,14 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="3"/>
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="4"/>
@@ -1064,7 +1076,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="5"/>
@@ -1094,14 +1106,14 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="4"/>
@@ -1109,7 +1121,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="5"/>
@@ -1139,14 +1151,14 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="3"/>
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="4"/>
@@ -1154,7 +1166,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="5"/>
@@ -1184,14 +1196,14 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="3"/>
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="4"/>
@@ -1199,7 +1211,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="5"/>
@@ -1229,14 +1241,14 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="3"/>
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="4"/>
@@ -1244,7 +1256,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="5"/>
@@ -1274,7 +1286,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="3"/>
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1289,7 +1301,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="5"/>
@@ -1319,7 +1331,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1334,7 +1346,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="5"/>
@@ -1364,7 +1376,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1379,7 +1391,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>856</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="5"/>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>863</v>
+        <v>984</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1424,7 +1436,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>863</v>
+        <v>984</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="5"/>
@@ -1454,7 +1466,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>992</v>
+        <v>1132</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1469,7 +1481,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>992</v>
+        <v>1132</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="5"/>
@@ -1499,7 +1511,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>1141</v>
+        <v>1302</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1514,7 +1526,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>1141</v>
+        <v>1302</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="5"/>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>1312</v>
+        <v>1497</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1559,7 +1571,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>1312</v>
+        <v>1497</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="5"/>
@@ -1589,7 +1601,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="3"/>
-        <v>1509</v>
+        <v>1722</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1604,7 +1616,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>1722</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="5"/>
@@ -1634,7 +1646,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="3"/>
-        <v>1735</v>
+        <v>1980</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1649,7 +1661,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>1980</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="5"/>
@@ -1679,7 +1691,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="3"/>
-        <v>1995</v>
+        <v>2277</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1694,7 +1706,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>1995</v>
+        <v>2277</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="5"/>
@@ -1719,6 +1731,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/GunLevelConfig.xlsx
+++ b/Data/GunLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Level</t>
   </si>
@@ -60,6 +60,18 @@
   <si>
     <t>!Tỷ lệ nhân</t>
   </si>
+  <si>
+    <t>Gold Uprade</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>!BlockGold</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +146,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,13 +182,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -188,6 +224,12 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -205,6 +247,12 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F27"/>
+      <selection activeCell="L3" sqref="L3:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +594,7 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,8 +628,11 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -615,8 +666,11 @@
       <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -650,10 +704,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>2000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <f>A3 +1</f>
         <v>2</v>
@@ -694,10 +751,14 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <f>K3 +  VLOOKUP(L4, Sheet2!A$3:B$7,2)</f>
+        <v>4500</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A26" si="2">A4 +1</f>
         <v>3</v>
@@ -738,10 +799,14 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <f>K4 +  VLOOKUP(L5, Sheet2!A$3:B$7,2)</f>
+        <v>7000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -782,54 +847,62 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
+        <f>K5 +  VLOOKUP(L6, Sheet2!A$3:B$7,2)</f>
+        <v>9500</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1">
+      <c r="A7" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>2.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <f>K6 +  VLOOKUP(L7, Sheet2!A$3:B$7,2)</f>
+        <v>12000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -870,11 +943,14 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <f>K7 +4000</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <f>K7 +  VLOOKUP(L8, Sheet2!A$3:B$7,2)</f>
+        <v>18000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -915,11 +991,14 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K27" si="9">K8 +4000</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <f>K8 +  VLOOKUP(L9, Sheet2!A$3:B$7,2)</f>
+        <v>24000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -960,11 +1039,14 @@
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="9"/>
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <f>K9 +  VLOOKUP(L10, Sheet2!A$3:B$7,2)</f>
+        <v>30000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1005,56 +1087,62 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="9"/>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
+        <f>K10 +  VLOOKUP(L11, Sheet2!A$3:B$7,2)</f>
+        <v>36000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
+      <c r="A12" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <f t="shared" si="3"/>
         <v>267</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>1.17</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="9"/>
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f>K11 +  VLOOKUP(L12, Sheet2!A$3:B$7,2)</f>
+        <v>42000</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1095,11 +1183,14 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="9"/>
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <f>K12 +  VLOOKUP(L13, Sheet2!A$3:B$7,2)</f>
+        <v>52000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1140,11 +1231,14 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="9"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <f>K13 +  VLOOKUP(L14, Sheet2!A$3:B$7,2)</f>
+        <v>62000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1185,11 +1279,14 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="9"/>
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <f>K14 +  VLOOKUP(L15, Sheet2!A$3:B$7,2)</f>
+        <v>72000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1230,56 +1327,62 @@
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="9"/>
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
+        <f>K15 +  VLOOKUP(L16, Sheet2!A$3:B$7,2)</f>
+        <v>82000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1">
+      <c r="A17" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <f t="shared" si="3"/>
         <v>563</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>2.1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>563</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="9"/>
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f>K16 +  VLOOKUP(L17, Sheet2!A$3:B$7,2)</f>
+        <v>92000</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1320,11 +1423,14 @@
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="9"/>
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <f>K17 +  VLOOKUP(L18, Sheet2!A$3:B$7,2)</f>
+        <v>107000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1365,11 +1471,14 @@
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="9"/>
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <f>K18 +  VLOOKUP(L19, Sheet2!A$3:B$7,2)</f>
+        <v>122000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1410,11 +1519,14 @@
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="9"/>
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <f>K19 +  VLOOKUP(L20, Sheet2!A$3:B$7,2)</f>
+        <v>137000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1455,56 +1567,62 @@
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="9"/>
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
+        <f>K20 +  VLOOKUP(L21, Sheet2!A$3:B$7,2)</f>
+        <v>152000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1">
+      <c r="A22" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <f t="shared" si="3"/>
         <v>1132</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>1132</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="9"/>
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f>K21 +  VLOOKUP(L22, Sheet2!A$3:B$7,2)</f>
+        <v>167000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1545,11 +1663,14 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="9"/>
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <f>K22 +  VLOOKUP(L23, Sheet2!A$3:B$7,2)</f>
+        <v>189000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1590,11 +1711,14 @@
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="9"/>
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <f>K23 +  VLOOKUP(L24, Sheet2!A$3:B$7,2)</f>
+        <v>211000</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1635,11 +1759,14 @@
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="9"/>
-        <v>89000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <f>K24 +  VLOOKUP(L25, Sheet2!A$3:B$7,2)</f>
+        <v>233000</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1680,58 +1807,63 @@
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="9"/>
-        <v>93000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
+        <f>K25 +  VLOOKUP(L26, Sheet2!A$3:B$7,2)</f>
+        <v>255000</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1">
+      <c r="A27" s="4">
         <f>A26 +1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <f t="shared" si="3"/>
         <v>2277</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>2277</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="9"/>
-        <v>97000</v>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <f>K26 +  VLOOKUP(L27, Sheet2!A$3:B$7,2)</f>
+        <v>277000</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1742,12 +1874,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
